--- a/AutoFirmwareUpgrade/ClassLibrary1/TestDataFiles/CablingDataSet/2M4U3I.xlsx
+++ b/AutoFirmwareUpgrade/ClassLibrary1/TestDataFiles/CablingDataSet/2M4U3I.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EAF83D-60E6-478E-9EA9-F319F43AF5C9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291513D2-F8A8-4F6F-ADAC-BAB1E0FCD9B8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -264,10 +264,10 @@
     <t>sn409026540_8U_10I.cal</t>
   </si>
   <si>
-    <t>Cabling 2M3U3I</t>
-  </si>
-  <si>
     <t>Cabling 2M4U3I</t>
+  </si>
+  <si>
+    <t>Cabling 3U3I</t>
   </si>
 </sst>
 </file>
@@ -624,7 +624,7 @@
   <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,10 +713,10 @@
         <v>67</v>
       </c>
       <c r="K2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" t="s">
         <v>80</v>
-      </c>
-      <c r="L2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">

--- a/AutoFirmwareUpgrade/ClassLibrary1/TestDataFiles/CablingDataSet/2M4U3I.xlsx
+++ b/AutoFirmwareUpgrade/ClassLibrary1/TestDataFiles/CablingDataSet/2M4U3I.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291513D2-F8A8-4F6F-ADAC-BAB1E0FCD9B8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E129A2D3-8D97-4473-9764-D89F1992300A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -624,7 +624,7 @@
   <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="W11" t="s">
         <v>24</v>
@@ -1123,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="W12" t="s">
         <v>25</v>
@@ -1158,7 +1158,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="W13" t="s">
         <v>26</v>
